--- a/07_Movilidad/P0714/P0714_2015.xlsx
+++ b/07_Movilidad/P0714/P0714_2015.xlsx
@@ -167,10 +167,10 @@
     <t>Pesos Mexicanos Diarios</t>
   </si>
   <si>
-    <t>Clasificación de los municipios en dos áreas geográficas</t>
-  </si>
-  <si>
-    <t>Clasificación de areas geograficas para asignación de salarios mínimos, vigente del 27 de noviembre de 2012 al 30 de septiembre de 2015</t>
+    <t>Salarios minimos por municipio.</t>
+  </si>
+  <si>
+    <t>Clasificación en dos áreas geográficas para asignación de salarios mínimos, vigente del 27 de noviembre de 2012 al 30 de septiembre de 2015.</t>
   </si>
   <si>
     <t>1992-2018</t>
